--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E21C3D8-82D7-4360-B86F-E13D748D431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A76CF8-6052-4A03-BD8D-05A16145C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{3FC467D8-0E4D-434F-A2BE-F08E5C4BEED6}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5D193994-C602-425A-9401-88C04CD99DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641468D-D34B-41D9-AF17-4A6684EC53B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A205DF5A-9122-493C-8897-95DE5353CDD8}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A76CF8-6052-4A03-BD8D-05A16145C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E46025B-CF19-4588-8FF7-82FB64934625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5D193994-C602-425A-9401-88C04CD99DDE}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{4B625353-4A2A-478D-81C0-FE3AB53418C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A205DF5A-9122-493C-8897-95DE5353CDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F557A144-6A88-4575-975D-65EF0D7AE235}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E46025B-CF19-4588-8FF7-82FB64934625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D0C060-4EEC-4916-8E83-A58448941CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{4B625353-4A2A-478D-81C0-FE3AB53418C5}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{F36FACCC-5E6F-497C-80C9-A96B81988BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F557A144-6A88-4575-975D-65EF0D7AE235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B76AD3-1FBE-48AF-A8D7-6548B6F4CE5A}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.1/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D0C060-4EEC-4916-8E83-A58448941CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D17CBDC-3D7B-47EE-8A46-796082B17C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{F36FACCC-5E6F-497C-80C9-A96B81988BC8}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{FF3222E7-F78D-44B7-AE2F-60D83C89C18F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B76AD3-1FBE-48AF-A8D7-6548B6F4CE5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290D01C7-F1BB-44A7-869D-DFF1F25AFEF1}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7214,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.10313055483870971</v>
+        <v>0.10311628744939273</v>
       </c>
       <c r="I90">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J90">
         <v>7.6256951102922493E-2</v>
@@ -7235,10 +7235,10 @@
         <v>2</v>
       </c>
       <c r="O90">
-        <v>0.10075829580136415</v>
+        <v>0.10086961234049278</v>
       </c>
       <c r="P90">
-        <v>0.2235895107300358</v>
+        <v>0.22395734004865536</v>
       </c>
       <c r="Q90">
         <v>7.6256951102922493E-2</v>
@@ -7288,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0.14439763440860215</v>
+        <v>0.14446070040485831</v>
       </c>
       <c r="I91">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J91">
         <v>0.1390103067545764</v>
@@ -7309,10 +7309,10 @@
         <v>2</v>
       </c>
       <c r="O91">
-        <v>0.14360770418410829</v>
+        <v>0.14370502156590603</v>
       </c>
       <c r="P91">
-        <v>0.22307815735913769</v>
+        <v>0.22347557962285849</v>
       </c>
       <c r="Q91">
         <v>0.1390103067545764</v>
@@ -7362,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.18566471397849466</v>
+        <v>0.18561281376518218</v>
       </c>
       <c r="I92">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J92">
         <v>0.22606217116532146</v>
@@ -7383,10 +7383,10 @@
         <v>2</v>
       </c>
       <c r="O92">
-        <v>0.18824630477539489</v>
+        <v>0.18806261586491002</v>
       </c>
       <c r="P92">
-        <v>0.223702713913739</v>
+        <v>0.22406698609537226</v>
       </c>
       <c r="Q92">
         <v>0.22606217116532146</v>
@@ -7436,10 +7436,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.22693179354838711</v>
+        <v>0.22676492712550606</v>
       </c>
       <c r="I93">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J93">
         <v>0.25954154260483386</v>
@@ -7457,10 +7457,10 @@
         <v>2</v>
       </c>
       <c r="O93">
-        <v>0.2297039791129955</v>
+        <v>0.22940154445493915</v>
       </c>
       <c r="P93">
-        <v>0.22381694132818791</v>
+        <v>0.2241790557742889</v>
       </c>
       <c r="Q93">
         <v>0.25954154260483386</v>
@@ -13668,10 +13668,10 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I191">
-        <v>0.21498177634408605</v>
+        <v>0.21488914170040482</v>
       </c>
       <c r="J191">
         <v>9.573067979353278E-2</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="O191">
-        <v>0.13442630644914078</v>
+        <v>0.13476594027511923</v>
       </c>
       <c r="P191">
-        <v>0.21185142491905828</v>
+        <v>0.21201601497826772</v>
       </c>
       <c r="Q191">
         <v>9.573067979353278E-2</v>
@@ -13742,10 +13742,10 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I192">
-        <v>0.18066064086021505</v>
+        <v>0.18065981376518214</v>
       </c>
       <c r="J192">
         <v>9.148940065970268E-2</v>
@@ -13763,10 +13763,10 @@
         <v>2</v>
       </c>
       <c r="O192">
-        <v>0.13459755566048842</v>
+        <v>0.13493503548777014</v>
       </c>
       <c r="P192">
-        <v>0.17727606429164866</v>
+        <v>0.17753548411338652</v>
       </c>
       <c r="Q192">
         <v>9.148940065970268E-2</v>
@@ -13816,10 +13816,10 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I193">
-        <v>0.1463395053763441</v>
+        <v>0.14643048582995949</v>
       </c>
       <c r="J193">
         <v>9.9770497093209884E-2</v>
@@ -13837,10 +13837,10 @@
         <v>2</v>
       </c>
       <c r="O193">
-        <v>0.13386325554269557</v>
+        <v>0.13423530616021423</v>
       </c>
       <c r="P193">
-        <v>0.14430596151175054</v>
+        <v>0.14458799350528509</v>
       </c>
       <c r="Q193">
         <v>9.9770497093209884E-2</v>
@@ -13890,10 +13890,10 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I194">
-        <v>0.11201836989247313</v>
+        <v>0.11220115789473684</v>
       </c>
       <c r="J194">
         <v>7.8278439637120889E-2</v>
@@ -13911,10 +13911,10 @@
         <v>2</v>
       </c>
       <c r="O194">
-        <v>0.13416408119320117</v>
+        <v>0.13452545740431016</v>
       </c>
       <c r="P194">
-        <v>0.10933630998719474</v>
+        <v>0.10973824004142069</v>
       </c>
       <c r="Q194">
         <v>7.8278439637120889E-2</v>
@@ -19032,16 +19032,16 @@
         <v>0</v>
       </c>
       <c r="AP266">
-        <v>0.19921577204416657</v>
+        <v>0.19920065056293135</v>
       </c>
       <c r="AQ266">
-        <v>0.15215443262363351</v>
+        <v>0.15217455366185084</v>
       </c>
       <c r="AR266">
-        <v>0.28681643414947983</v>
+        <v>0.28683155563071494</v>
       </c>
       <c r="AS266">
-        <v>0.21802008375311624</v>
+        <v>0.21799996271489885</v>
       </c>
     </row>
     <row r="267" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -20136,16 +20136,16 @@
         <v>0</v>
       </c>
       <c r="AP281">
-        <v>0.33312432282197468</v>
+        <v>0.33311789065792269</v>
       </c>
       <c r="AQ281">
-        <v>0.12724329973389212</v>
+        <v>0.12723210356301437</v>
       </c>
       <c r="AR281">
-        <v>0.35913073217697</v>
+        <v>0.35913716434102189</v>
       </c>
       <c r="AS281">
-        <v>0.11228781002407605</v>
+        <v>0.11229900619495367</v>
       </c>
     </row>
     <row r="282" spans="1:45" x14ac:dyDescent="0.5">
@@ -20255,16 +20255,16 @@
         <v>0</v>
       </c>
       <c r="AP282">
-        <v>0.369975000647916</v>
+        <v>0.36998082416778577</v>
       </c>
       <c r="AQ282">
-        <v>0.13346037230873684</v>
+        <v>0.13345022652478633</v>
       </c>
       <c r="AR282">
-        <v>0.32228005435102869</v>
+        <v>0.3222742308311588</v>
       </c>
       <c r="AS282">
-        <v>0.10607073744923132</v>
+        <v>0.10608088323318172</v>
       </c>
     </row>
     <row r="283" spans="1:45" x14ac:dyDescent="0.5">
@@ -20380,16 +20380,16 @@
         <v>0</v>
       </c>
       <c r="AP283">
-        <v>0.34002364741398167</v>
+        <v>0.34002364741398156</v>
       </c>
       <c r="AQ283">
-        <v>0.14116167479349337</v>
+        <v>0.14116167479349331</v>
       </c>
       <c r="AR283">
         <v>0.35223140758496302</v>
       </c>
       <c r="AS283">
-        <v>0.15336943496447478</v>
+        <v>0.15336943496447472</v>
       </c>
     </row>
     <row r="284" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -22040,13 +22040,13 @@
         <v>0</v>
       </c>
       <c r="AP303">
-        <v>5.41938332170269E-2</v>
+        <v>5.4193833217026914E-2</v>
       </c>
       <c r="AQ303">
         <v>0.23588725818837483</v>
       </c>
       <c r="AR303">
-        <v>5.419383321702697E-2</v>
+        <v>5.4193833217026983E-2</v>
       </c>
       <c r="AS303">
         <v>0.13428725818837486</v>
@@ -22269,13 +22269,13 @@
         <v>0.14703883321702677</v>
       </c>
       <c r="AQ305">
-        <v>0.25898862791507243</v>
+        <v>0.25898862791507232</v>
       </c>
       <c r="AR305">
         <v>0.13328883321702673</v>
       </c>
       <c r="AS305">
-        <v>0.25898862791507243</v>
+        <v>0.25898862791507232</v>
       </c>
     </row>
     <row r="306" spans="1:45" x14ac:dyDescent="0.5">
@@ -22382,13 +22382,13 @@
         <v>9.5238833217026767E-2</v>
       </c>
       <c r="AQ306">
-        <v>0.12113996402049673</v>
+        <v>0.12113996402049668</v>
       </c>
       <c r="AR306">
         <v>0.14603883321702679</v>
       </c>
       <c r="AS306">
-        <v>0.12113996402049684</v>
+        <v>0.12113996402049679</v>
       </c>
     </row>
     <row r="307" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -23874,13 +23874,13 @@
         <v>0.19875483042568001</v>
       </c>
       <c r="AQ329">
-        <v>8.8609468813883666E-2</v>
+        <v>8.8609468813883638E-2</v>
       </c>
       <c r="AR329">
         <v>0.15035483042567996</v>
       </c>
       <c r="AS329">
-        <v>8.8609468813883638E-2</v>
+        <v>8.860946881388361E-2</v>
       </c>
     </row>
     <row r="330" spans="1:45" x14ac:dyDescent="0.5">
@@ -23987,13 +23987,13 @@
         <v>0.19875483042567998</v>
       </c>
       <c r="AQ330">
-        <v>9.9272824920721481E-2</v>
+        <v>9.9272824920721453E-2</v>
       </c>
       <c r="AR330">
         <v>0.14235483042567998</v>
       </c>
       <c r="AS330">
-        <v>9.9272824920721425E-2</v>
+        <v>9.9272824920721398E-2</v>
       </c>
     </row>
     <row r="331" spans="1:45" x14ac:dyDescent="0.5">
@@ -24100,13 +24100,13 @@
         <v>0.14235483042567998</v>
       </c>
       <c r="AQ331">
-        <v>9.9272824920722078E-2</v>
+        <v>9.927282492072205E-2</v>
       </c>
       <c r="AR331">
         <v>8.6194830425680269E-2</v>
       </c>
       <c r="AS331">
-        <v>9.927282492072205E-2</v>
+        <v>9.9272824920722022E-2</v>
       </c>
     </row>
     <row r="332" spans="1:45" x14ac:dyDescent="0.5">
@@ -24126,7 +24126,7 @@
         <v>5</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -24216,10 +24216,10 @@
         <v>0</v>
       </c>
       <c r="AP332">
-        <v>3.2526201275578592E-2</v>
+        <v>3.2526201275578565E-2</v>
       </c>
       <c r="AQ332">
-        <v>7.8140845214166518E-2</v>
+        <v>7.8140845214166463E-2</v>
       </c>
       <c r="AR332">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="AP333">
-        <v>3.4521876258293005E-2</v>
+        <v>3.4521876258292991E-2</v>
       </c>
       <c r="AQ333">
-        <v>6.7328522356393861E-2</v>
+        <v>6.7328522356393805E-2</v>
       </c>
       <c r="AR333">
         <v>0</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="AP334">
-        <v>0.20875483042568005</v>
+        <v>0.20875483042567999</v>
       </c>
       <c r="AQ334">
         <v>7.7009474364268235E-2</v>
       </c>
       <c r="AR334">
-        <v>0.20875483042568005</v>
+        <v>0.20875483042567999</v>
       </c>
       <c r="AS334">
         <v>7.100947436426823E-2</v>
@@ -24477,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>1</v>
